--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LUIZFERNANANDO/Desktop/Dissertação/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LUIZFERNANANDO/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63112412-273D-F647-9432-735AE3989CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2681691-C64A-6C45-BF76-6FC7914A88E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1C4381DE-D221-AC43-B57F-C1C1FDF9EDC8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{1C4381DE-D221-AC43-B57F-C1C1FDF9EDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>climate_risk</t>
   </si>
@@ -65,9 +65,6 @@
     <t>CRC</t>
   </si>
   <si>
-    <t>QUE</t>
-  </si>
-  <si>
     <t>SLV</t>
   </si>
   <si>
@@ -267,6 +264,12 @@
   </si>
   <si>
     <t>87.10</t>
+  </si>
+  <si>
+    <t>pib_percap</t>
+  </si>
+  <si>
+    <t>EQU</t>
   </si>
 </sst>
 </file>
@@ -618,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B1A856-C3D9-F642-8EDB-4BEB4E52B30E}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,24 +632,27 @@
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -654,16 +660,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>23627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -671,16 +680,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>9039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -688,16 +700,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>16056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -705,16 +720,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>29104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -722,16 +740,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>16893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -739,251 +760,296 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>23387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>11661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>9668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>9769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>20036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F15">
+        <v>31680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>13975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>13895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>34333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>20</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>24625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>17527</v>
       </c>
     </row>
   </sheetData>
